--- a/metrics/SageNet/model_metric_results_sagenet_sentences.xlsx
+++ b/metrics/SageNet/model_metric_results_sagenet_sentences.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6073263564380394</v>
+        <v>0.9570486600837073</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7072310405643739</v>
+        <v>0.9694749694749696</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.74</v>
+        <v>0.971830985915493</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7253968253968255</v>
+        <v>0.9714698447092813</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.74</v>
+        <v>0.971830985915493</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7175213675213676</v>
+        <v>0.9713804713804715</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
   </sheetData>
